--- a/slides/foods.xlsx
+++ b/slides/foods.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icics-user/Documents/online_course/MCL-DSCI-511-programming-in-python/slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17E87E6-1FA9-7D41-B224-4E019717B7AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DCE6D5-67E6-3F45-84A1-2D1D0A6951C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16320" activeTab="2" xr2:uid="{4931CA06-7773-0C42-8182-FF67C8EAE8F2}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16320" activeTab="3" xr2:uid="{4931CA06-7773-0C42-8182-FF67C8EAE8F2}"/>
   </bookViews>
   <sheets>
     <sheet name="sushi" sheetId="1" r:id="rId1"/>
     <sheet name="fruit" sheetId="2" r:id="rId2"/>
     <sheet name="candybars" sheetId="4" r:id="rId3"/>
-    <sheet name="book_titles" sheetId="3" r:id="rId4"/>
+    <sheet name="chocolate" sheetId="5" r:id="rId4"/>
+    <sheet name="book_titles" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -539,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3295510C-A4B4-FD45-9CA4-8D6EFCAAAC5A}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="A1:K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1471,6 +1472,931 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA4F182-C06F-EC4C-8369-57A5E76F264D}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>184</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>58</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>43</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2EB533-7B56-314F-9065-1A7B888982EA}">
   <dimension ref="A1"/>
   <sheetViews>
